--- a/public/imports/template_data_poduk.xlsx
+++ b/public/imports/template_data_poduk.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rizki/Documents/File-Rizki/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rizki/Documents/File-Rizki/backend-TA/public/imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17000" yWindow="460" windowWidth="21400" windowHeight="19900"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19920"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -35,24 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Shampo Bayi</t>
   </si>
   <si>
     <t>2022-01-11</t>
-  </si>
-  <si>
-    <t>2022-01-12</t>
-  </si>
-  <si>
-    <t>2022-01-13</t>
-  </si>
-  <si>
-    <t>2022-01-14</t>
-  </si>
-  <si>
-    <t>2022-01-15</t>
   </si>
   <si>
     <t>nama_produk</t>
@@ -425,7 +413,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -436,22 +424,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -475,84 +463,16 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>121</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>50000</v>
-      </c>
-      <c r="E3">
-        <v>40000</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>122</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>50000</v>
-      </c>
-      <c r="E4">
-        <v>40000</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>123</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>50000</v>
-      </c>
-      <c r="E5">
-        <v>40000</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>124</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>50000</v>
-      </c>
-      <c r="E6">
-        <v>40000</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
+      <c r="C6" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/public/imports/template_data_poduk.xlsx
+++ b/public/imports/template_data_poduk.xlsx
@@ -1,26 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28410"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rizki/Documents/File-Rizki/backend-TA/public/imports/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rizki\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4290D240-7A5B-4C6B-BF60-EC375AC8831A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19920"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0" forceFullCalc="1"/>
+  <calcPr calcId="181029" concurrentCalc="0" forceFullCalc="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,12 +28,15 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Shampo Bayi</t>
   </si>
@@ -59,12 +60,18 @@
   </si>
   <si>
     <t>tgl_produk_masuk</t>
+  </si>
+  <si>
+    <t>Toko Dede</t>
+  </si>
+  <si>
+    <t>nama_pemasok</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -409,20 +416,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -441,8 +453,11 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -461,17 +476,20 @@
       <c r="F2">
         <v>0</v>
       </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
     </row>
   </sheetData>
